--- a/PhD Timeline-GantChart.xlsx
+++ b/PhD Timeline-GantChart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CFF851-3A35-4432-B126-D87C1634EF64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6101B6-FD97-438C-A67D-3A1F25AB4B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C59D5C13-B87C-4C79-ADFA-1480447D4608}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Start Date</t>
   </si>
@@ -93,6 +93,18 @@
   </si>
   <si>
     <t>Initial Review Corrections</t>
+  </si>
+  <si>
+    <t>New Initial Review</t>
+  </si>
+  <si>
+    <t>Suspension</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -155,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -178,12 +190,17 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -219,7 +236,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.26697420559048884"/>
+          <c:y val="8.0833912107076439E-2"/>
+          <c:w val="0.68820633747399806"/>
+          <c:h val="0.88825636177256773"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="stacked"/>
@@ -248,9 +275,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>ProjectTable!$C$2:$C$15</c:f>
+              <c:f>ProjectTable!$C$2:$C$17</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>Introductory Chapter</c:v>
                 </c:pt>
@@ -264,33 +291,39 @@
                   <c:v>Initial Review Corrections</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>Suspension</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>New Initial Review</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Literature Review</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>Interim Review 9 months</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>Research Methods Explanation</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>Data collection and Analysis</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>Interim Review 24 months</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>Discussion and Conclusion</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>Final review 6 months before end</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>Examiners Appointed</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>Thesis submitted</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>Viva examination</c:v>
                 </c:pt>
               </c:strCache>
@@ -298,10 +331,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ProjectTable!$A$2:$A$15</c:f>
+              <c:f>ProjectTable!$A$2:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]mmm\-yy;@</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>44473</c:v>
                 </c:pt>
@@ -315,33 +348,39 @@
                   <c:v>44615</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>44700</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45096</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>44621</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>44746</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>44896</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>45017</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>45203</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>45231</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>45385</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>45476</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>45568</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>45660</c:v>
                 </c:pt>
               </c:numCache>
@@ -379,9 +418,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>ProjectTable!$C$2:$C$15</c:f>
+              <c:f>ProjectTable!$C$2:$C$17</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>Introductory Chapter</c:v>
                 </c:pt>
@@ -395,33 +434,39 @@
                   <c:v>Initial Review Corrections</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>Suspension</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>New Initial Review</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Literature Review</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>Interim Review 9 months</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>Research Methods Explanation</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>Data collection and Analysis</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>Interim Review 24 months</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>Discussion and Conclusion</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>Final review 6 months before end</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>Examiners Appointed</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>Thesis submitted</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>Viva examination</c:v>
                 </c:pt>
               </c:strCache>
@@ -429,10 +474,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ProjectTable!$D$2:$D$15</c:f>
+              <c:f>ProjectTable!$D$2:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>147</c:v>
                 </c:pt>
@@ -445,34 +490,34 @@
                 <c:pt idx="3">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>274</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>119</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>212</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>364</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>364</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1540,10 +1585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EE0D9F5-4DD9-4094-981A-114A616972D5}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:D5"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1567,6 +1612,9 @@
       <c r="D1" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
@@ -1594,8 +1642,11 @@
         <v>14</v>
       </c>
       <c r="D3" s="7">
-        <f t="shared" ref="D3:D15" si="0">B3-A3</f>
+        <f t="shared" ref="D3:D17" si="0">B3-A3</f>
         <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1614,155 +1665,150 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="10">
         <v>44615</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>44636</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="12">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>44621</v>
-      </c>
-      <c r="B6" s="9">
-        <v>44895</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="7">
-        <f t="shared" si="0"/>
-        <v>274</v>
-      </c>
-      <c r="F6" s="5"/>
+      <c r="A6" s="14">
+        <v>44700</v>
+      </c>
+      <c r="B6" s="14">
+        <v>45064</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="16"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>44746</v>
-      </c>
-      <c r="B7" s="8">
-        <v>44747</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F7" s="5"/>
+      <c r="A7" s="14">
+        <v>45096</v>
+      </c>
+      <c r="B7" s="14">
+        <v>45096</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="15"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
-        <v>44896</v>
+        <v>44621</v>
       </c>
       <c r="B8" s="9">
-        <v>45015</v>
+        <v>44895</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D8" s="7">
         <f t="shared" si="0"/>
-        <v>119</v>
+        <v>274</v>
       </c>
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
-        <v>45017</v>
-      </c>
-      <c r="B9" s="9">
-        <v>45229</v>
+        <v>44746</v>
+      </c>
+      <c r="B9" s="8">
+        <v>44747</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D9" s="7">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>1</v>
       </c>
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
-        <v>45203</v>
-      </c>
-      <c r="B10" s="8">
-        <v>45204</v>
+        <v>44896</v>
+      </c>
+      <c r="B10" s="9">
+        <v>45015</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D10" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
-        <v>45231</v>
+        <v>45017</v>
       </c>
       <c r="B11" s="9">
-        <v>45595</v>
+        <v>45229</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="7">
         <f t="shared" si="0"/>
-        <v>364</v>
+        <v>212</v>
       </c>
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
-        <v>45385</v>
-      </c>
-      <c r="B12" s="9">
-        <v>45386</v>
+      <c r="A12" s="8">
+        <v>45203</v>
+      </c>
+      <c r="B12" s="8">
+        <v>45204</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
-        <v>45476</v>
+      <c r="A13" s="8">
+        <v>45231</v>
       </c>
       <c r="B13" s="9">
-        <v>45477</v>
+        <v>45595</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D13" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
-        <v>45568</v>
+        <v>45385</v>
       </c>
       <c r="B14" s="9">
-        <v>45569</v>
+        <v>45386</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D14" s="7">
         <f t="shared" si="0"/>
@@ -1770,16 +1816,46 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="A15" s="9">
+        <v>45476</v>
+      </c>
+      <c r="B15" s="9">
+        <v>45477</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>45568</v>
+      </c>
+      <c r="B16" s="9">
+        <v>45569</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
         <v>45660</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B17" s="8">
         <v>45661</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C17" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D17" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1795,28 +1871,28 @@
   <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
